--- a/CoParticipacaoWebService/src/test/resources/intervalor/input/INTERVALOR.NAO-LOCALIZADO.201808.000.xlsx
+++ b/CoParticipacaoWebService/src/test/resources/intervalor/input/INTERVALOR.NAO-LOCALIZADO.201808.000.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t xml:space="preserve">MATRICULA</t>
   </si>
@@ -34,28 +34,25 @@
     <t xml:space="preserve">CPF DEPENDENTE</t>
   </si>
   <si>
+    <t xml:space="preserve">DATA NASCIMENTO</t>
+  </si>
+  <si>
     <t xml:space="preserve">NOME TÍTULAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REBECA SANCHES CAMARGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VANESSA RIBEIRO SANCHES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -79,14 +76,8 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,12 +88,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -140,7 +125,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -149,83 +134,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFF200"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -234,22 +151,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="27.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -262,19 +179,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>509666</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>42890489000</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -293,22 +199,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="27.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -320,6 +226,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -338,22 +247,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="27.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -365,6 +274,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -383,22 +295,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="27.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -410,6 +322,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
